--- a/cleancali4.xlsx
+++ b/cleancali4.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,8 +556,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>91006</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91006</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -596,8 +598,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>95602</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95602</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -631,8 +635,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>92656</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92656</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -686,8 +692,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>93420</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93420</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -731,8 +739,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>93301</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93301</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -776,8 +786,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>94531</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94531</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -816,8 +828,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>92307</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92307</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -856,8 +870,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>91006</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91006</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -911,8 +927,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>93422</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93422</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -961,8 +979,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>95603</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95603</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1011,8 +1031,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>93313</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93313</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1056,8 +1078,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>93301</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93301</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1091,8 +1115,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>95928</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95928</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1136,8 +1162,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>91911</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91911</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1171,8 +1199,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>90230</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90230</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1216,8 +1246,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>92821</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92821</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1271,8 +1303,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>94520</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94520</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1316,8 +1350,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>95616</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95616</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1351,8 +1387,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>92879</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92879</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1391,8 +1429,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>90242</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90242</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1431,8 +1471,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>91505</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91505</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1466,8 +1508,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>92009</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92009</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1511,8 +1555,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>95608</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95608</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1551,8 +1597,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>95926</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95926</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1601,8 +1649,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>92628</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92628</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1646,8 +1696,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>91724</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91724</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1686,8 +1738,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>91723</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91723</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1726,8 +1780,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>90241</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90241</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1766,8 +1822,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>91010</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91010</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1816,8 +1874,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>92243</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92243</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1851,8 +1911,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>95628</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95628</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1886,8 +1948,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>92708</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92708</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1926,8 +1990,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>92835</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92835</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1971,8 +2037,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>91733</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91733</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2011,8 +2079,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>94533</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94533</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2068,8 +2138,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>95020</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95020</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2125,8 +2197,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>92024</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92024</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2150,8 +2224,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>95630</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95630</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2190,8 +2266,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>94538</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94538</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2225,8 +2303,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>95945</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95945</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2265,8 +2345,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>91436</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91436</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2305,8 +2387,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>92025</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92025</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2345,8 +2429,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>95501</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95501</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2385,8 +2471,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>92610</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92610</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2435,8 +2523,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>93726</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93726</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2475,8 +2565,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>93720</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93720</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2515,8 +2607,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>93710</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93710</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2560,8 +2654,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>95945</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95945</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2615,8 +2711,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>92345</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92345</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2665,8 +2763,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>90301</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90301</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2715,8 +2815,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>92618</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92618</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2760,8 +2862,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>94904</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94904</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2810,8 +2914,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>92037</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92037</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2850,8 +2956,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>90813</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90813</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2890,8 +2998,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>90806</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90806</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2945,8 +3055,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>90020</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90020</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3000,8 +3112,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>95032</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95032</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3050,8 +3164,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>91942</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91942</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3097,8 +3213,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>92618</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92618</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3142,8 +3260,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>92653</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92653</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3182,8 +3302,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>95340</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95340</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3222,8 +3344,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>95348</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95348</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3299,8 +3423,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>92354</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92354</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3354,8 +3480,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>90048</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90048</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3394,8 +3522,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>92691</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92691</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3434,8 +3564,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>92691</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92691</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3469,8 +3601,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>95350</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95350</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3504,8 +3638,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>91321</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91321</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3554,8 +3690,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>91324</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91324</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3604,8 +3742,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>92868</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92868</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3659,8 +3799,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>92663</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92663</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3684,8 +3826,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>95350</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95350</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3729,8 +3873,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>93940</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93940</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3774,8 +3920,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>92663</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92663</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3824,8 +3972,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>92663</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92663</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3864,8 +4014,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>92860</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92860</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3899,8 +4051,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>94945</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94945</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3934,8 +4088,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>94621</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94621</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3969,8 +4125,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>94609</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94609</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4014,8 +4172,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>92865</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92865</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4059,8 +4219,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>95966</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95966</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4099,8 +4261,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>94040</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94040</t>
+        </is>
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
@@ -4151,8 +4315,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>92562</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92562</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4186,8 +4352,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>91764</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91764</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4221,8 +4389,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>92868</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92868</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4266,8 +4436,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>92211</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92211</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4311,8 +4483,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>91105</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91105</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4356,8 +4530,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>91767</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91767</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4411,8 +4587,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>91767</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91767</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4461,8 +4639,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>96001</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96001</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4506,8 +4686,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>96001</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96001</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4551,8 +4733,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>91335</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91335</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4596,8 +4780,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>94806</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94806</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4663,8 +4849,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>92270</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92270</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4708,8 +4896,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>92374</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92374</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4738,8 +4928,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>92506</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92506</t>
+        </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4773,8 +4965,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>92504</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92504</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4845,8 +5039,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>96080</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96080</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4885,8 +5081,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>96001</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96001</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4910,8 +5108,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>92374</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92374</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4960,8 +5160,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>94053</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94053</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4995,8 +5197,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>95661</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>95661</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5035,8 +5239,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>95661</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95661</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5090,8 +5296,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>95661</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95661</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5135,8 +5343,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>95815</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>95815</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5185,8 +5395,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>95823</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95823</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5225,8 +5437,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>95816</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95816</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5270,8 +5484,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>95817</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95817</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5320,8 +5536,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>95841</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95841</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5370,8 +5588,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>93901</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93901</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5410,8 +5630,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>93901</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93901</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5455,8 +5677,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>92117</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92117</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5505,8 +5729,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>92123</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92123</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5550,8 +5776,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>92121</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92121</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5595,8 +5823,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>92103</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92103</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5630,8 +5860,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>92123</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92123</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5665,8 +5897,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>92123</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92123</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5700,8 +5934,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>92121</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92121</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5745,8 +5981,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>92115</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92115</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5800,8 +6038,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>94118</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94118</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5840,8 +6080,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>94107</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94107</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5880,8 +6122,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>94158</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94158</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5925,8 +6169,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>94158</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94158</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5980,8 +6226,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>94117</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94117</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6025,8 +6273,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>95128</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95128</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6082,8 +6332,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>94901</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94901</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6137,8 +6389,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>94143</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94143</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6147,21 +6401,66 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orthotic &amp;amp; Prosthetic Centers at San Francisco General Hospital   </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2550 23rd St, Bldg 9, Room 119</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>CA</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Fax (415) 476-7003</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>matthew.garibaldi@ucsf.edu</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Kenneth J. Kane, CO, Clinical Manager Heidi Truman, CPO</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Robert Joseph Muller, CO, Board Eligible Prosthetist</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Shannon Stanley</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Tanya Webb, CFm, Certified Fitter Mastectomy</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orthotic &amp;amp; Prosthetic Centers at San Francisco General Hospital   </t>
+          <t xml:space="preserve">Standard Cyborg </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2550 23rd St, Bldg 9, Room 119</t>
+          <t>1663 Mission St, Ste 560</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6169,51 +6468,31 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Fax (415) 476-7003</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>matthew.garibaldi@ucsf.edu</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Kenneth J. Kane, CO, Clinical Manager Heidi Truman, CPO</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Robert Joseph Muller, CO, Board Eligible Prosthetist</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Shannon Stanley</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>Tanya Webb, CFm, Certified Fitter Mastectomy</t>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94103</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>(844) 429-2674</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>http://www.standardcyborg.com/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Standard Cyborg </t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1663 Mission St, Ste 560</t>
+          <t>LegWorks</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Luis Obispo</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6221,24 +6500,31 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>94103</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93401</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>(844) 429-2674</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="inlineStr">
-        <is>
-          <t>http://www.standardcyborg.com/</t>
+          <t>(805) 541-3800</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Zachariah Malzhan, CPO Donald F. Newton, CPO, FAAOP</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LegWorks</t>
+          <t xml:space="preserve">Hanger Clinic   </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2400 Broad St</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6251,34 +6537,26 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>93401</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93401</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>(805) 541-3800</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Zachariah Malzhan, CPO Donald F. Newton, CPO, FAAOP</t>
+          <t>(805) 546-8666</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">North County Prosthetics &amp;amp; Orthotics   </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2400 Broad St</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>San Luis Obispo</t>
+          <t>555 Chorro St, Ste A2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6286,24 +6564,26 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>93401</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>(805) 546-8666</t>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Aarti Deshpande, CPO, Clinical</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">North County Prosthetics &amp;amp; Orthotics   </t>
+          <t xml:space="preserve">Nobbe Orthopedics Inc. </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>555 Chorro St, Ste A2</t>
+          <t>3010 State St</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6311,26 +6591,56 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93105</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>(805) 687-7508</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>mail@nobbeorthopedics.com</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>http://www.nobbeorthopedics.com/</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Aarti Deshpande, CPO, Clinical</t>
+          <t>Ralph W. Nobbe, CPO, President, Chief</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Executive O  "  cer</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Eric Baron, CPO</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nobbe Orthopedics Inc. </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3010 State St</t>
+          <t>23206 Lyons Ave, #111</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>Santa Clarita</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6338,54 +6648,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>93105</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91321</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>(805) 687-7508</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>mail@nobbeorthopedics.com</t>
+          <t>(661) 753-9260</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Fax (661) 753-9337</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>http://www.nobbeorthopedics.com/</t>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Ralph W. Nobbe, CPO, President, Chief</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Executive O  "  cer</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Eric Baron, CPO</t>
+          <t>Manager Hanna Dollard, CPO</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t>Bionics Orthotics &amp;amp;</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>23206 Lyons Ave, #111</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Santa Clarita</t>
+          <t>Michael Mayes, ATC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6393,39 +6690,46 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>91321</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>(661) 753-9260</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Fax (661) 753-9337</t>
-        </is>
-      </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>http://www.hanger.com/</t>
+          <t>http://www.bionicsoandp.com/</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Manager Hanna Dollard, CPO</t>
+          <t>Jason P. Benoit, CFo</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Kevin E. Calvo, CPO, FAAOP Steven Daluz, CO</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Emily Rau, CPO</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Nicole J. Pepper-Keller, CPO, Orthotist/Prosthetist</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bionics Orthotics &amp;amp;</t>
+          <t xml:space="preserve">Breakey Prosthetics Inc. </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Michael Mayes, ATC</t>
+          <t>820 Malone Rd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6433,46 +6737,51 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>95125</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>(408) 723-0883</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Fax (408) 723-0890</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>eyinc@sbcglobal.net</t>
+        </is>
+      </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>http://www.bionicsoandp.com/</t>
+          <t>http://www.breakeyprosthetics.net/</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Jason P. Benoit, CFo</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Kevin E. Calvo, CPO, FAAOP Steven Daluz, CO</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Emily Rau, CPO</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Nicole J. Pepper-Keller, CPO, Orthotist/Prosthetist</t>
+          <t>Mike D. Gidding, CP, President Chris Pimental, CTP, Vice President Dolores Valladarez, Secretary</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Breakey Prosthetics Inc. </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>820 Malone Rd</t>
+          <t>125 Ciro Ave, Ste 240</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6480,32 +6789,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>95125</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>95062</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>(408) 723-0883</t>
+          <t>(831) 460-9245</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Fax (408) 723-0890</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>eyinc@sbcglobal.net</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>http://www.breakeyprosthetics.net/</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Mike D. Gidding, CP, President Chris Pimental, CTP, Vice President Dolores Valladarez, Secretary</t>
+          <t>Fax (858) 270-6560</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6813,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>125 Ciro Ave, Ste 240</t>
+          <t>700 Frederick St, Ste 101</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6530,34 +6826,36 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>95062</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92078</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>(831) 460-9245</t>
+          <t>(858) 270-9972</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Fax (858) 270-6560</t>
+          <t>Fax (831) 460-9307</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Achilles Prosthetics &amp;amp; Orthotics Inc.   </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>700 Frederick St, Ste 101</t>
+          <t>622 E Main St</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6565,34 +6863,31 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>92078</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93454</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>(858) 270-9972</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Fax (831) 460-9307</t>
+          <t>(415) 206-4387</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Achilles Prosthetics &amp;amp; Orthotics Inc.   </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>622 E Main St</t>
+          <t>100 S Ellsworth Ave, Ste 203</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>San Mateo</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6600,29 +6895,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>93454</v>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94401</t>
+        </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>(415) 206-4387</t>
+          <t>(650) 343-4504</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Fax (805) 925-2746</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>achilles.apo@verizon.net</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>www.achillespo.com</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Donald F. Newton, CPO, FAAOP</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Nobbe Orthopedics Inc.   </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>100 S Ellsworth Ave, Ste 203</t>
+          <t>2345 S Broadway, Ste E</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>San Mateo</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6630,49 +6947,56 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>94401</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93454</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>(650) 343-4504</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Fax (805) 925-2746</t>
+          <t>(805) 925-8290</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>achilles.apo@verizon.net</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>www.achillespo.com</t>
+          <t>mail@nobbeorthopedics.com</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>http://www.nobbeorthopedics.com/</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Donald F. Newton, CPO, FAAOP</t>
+          <t>Ralph W. Nobbe, CPO, President, Chief</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Executive O  "  cer</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Eric Baron, CPO Jerry Hartmann, CP  O  Peggy Travis, CFm</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nobbe Orthopedics Inc.   </t>
+          <t xml:space="preserve">OrthoPros Inc. </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2345 S Broadway, Ste E</t>
+          <t>2021 Santa Monica Blvd, Ste 104 E</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Santa Monica</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6680,54 +7004,46 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>93454</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90404</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>(805) 925-8290</t>
+          <t>(310) 828-7485</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Fax (310) 828-7067</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>mail@nobbeorthopedics.com</t>
+          <t>orthopros@hotmail.com</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>http://www.nobbeorthopedics.com/</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Ralph W. Nobbe, CPO, President, Chief</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Executive O  "  cer</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Eric Baron, CPO Jerry Hartmann, CP  O  Peggy Travis, CFm</t>
+          <t>http://www.ortho-pros.com/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">OrthoPros Inc. </t>
+          <t xml:space="preserve">Accolades Prosthetic &amp;amp; Orthotic Design   </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021 Santa Monica Blvd, Ste 104 E</t>
+          <t xml:space="preserve">3855 Princeton Dr </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Santa Monica</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6735,39 +7051,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>90404</v>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>95405</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>(310) 828-7485</t>
+          <t>(707) 579-9570</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Fax (310) 828-7067</t>
+          <t>Fax (707) 579-4963</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>orthopros@hotmail.com</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>http://www.ortho-pros.com/</t>
+          <t>accoladespo@comcast.net</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Christopher Kerger, CP Michael Tange, CPO</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accolades Prosthetic &amp;amp; Orthotic Design   </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">3855 Princeton Dr </t>
+          <t>3663 N Laughlin Rd, Ste 103</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6780,8 +7098,10 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>95405</v>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>95405</t>
+        </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6790,29 +7110,19 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Fax (707) 579-4963</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>accoladespo@comcast.net</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Christopher Kerger, CP Michael Tange, CPO</t>
+          <t>Fax (707) 528-9742</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Hittenberger Orthotics &amp;amp; Prosthetics, LLC   </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3663 N Laughlin Rd, Ste 103</t>
+          <t>1111 Sonoma Ave, Ste 320</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6825,29 +7135,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>95405</v>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95405</t>
+        </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>(707) 579-9570</t>
+          <t>(707) 765-1122</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Fax (707) 528-9742</t>
+          <t>Fax (707) 765-4571</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>drew@hittenberger.com</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>http://www.hittenberger.com/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hittenberger Orthotics &amp;amp; Prosthetics, LLC   </t>
+          <t xml:space="preserve">Spectrum Orthotics &amp;amp; Prosthetics   </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1111 Sonoma Ave, Ste 320</t>
+          <t>1049 4th St</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6860,44 +7182,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>95405</v>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>95404</t>
+        </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>(707) 765-1122</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Fax (707) 765-4571</t>
+          <t>(707) 528-8858</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>drew@hittenberger.com</t>
+          <t>maggie@spectrumoandp.com</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>http://www.hittenberger.com/</t>
+          <t>http://www.spectrumoandp.com/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spectrum Orthotics &amp;amp; Prosthetics   </t>
+          <t xml:space="preserve">Prosthetic &amp;amp; Orthotic Group Inc. </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1049 4th St</t>
+          <t>2669 Myrtle Ave, Ste 101</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Santa Rosa</t>
+          <t>Signal Hill</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6905,39 +7224,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>95404</v>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90755</t>
+        </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>(707) 528-8858</t>
+          <t>(562) 595-6445</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Fax (562) 424-3122</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>maggie@spectrumoandp.com</t>
+          <t>glennmatsushima@p-o-group.com</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>http://www.spectrumoandp.com/</t>
+          <t>http://www.p-o-group.com/</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Brittany Gonzalez, CO</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prosthetic &amp;amp; Orthotic Group Inc. </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2669 Myrtle Ave, Ste 101</t>
+          <t>13771-A Mono Way</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Signal Hill</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6945,32 +7276,24 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>90755</v>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>95370</t>
+        </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>(562) 595-6445</t>
+          <t>(209) 532-4497</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Fax (562) 424-3122</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>glennmatsushima@p-o-group.com</t>
+          <t>Fax (209) 532-2489</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>http://www.p-o-group.com/</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Brittany Gonzalez, CO</t>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
     </row>
@@ -6982,12 +7305,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13771-A Mono Way</t>
+          <t>1248 32nd St</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>South Sacramento</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6995,17 +7318,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>95370</v>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95816</t>
+        </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(209) 532-4497</t>
+          <t>(916) 452-5724</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Fax (209) 532-2489</t>
+          <t>Fax (916) 452-2715</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -7022,12 +7347,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1248 32nd St</t>
+          <t>644 E Hardin, Ste A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>South Sacramento</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7035,17 +7360,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>95816</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95204</t>
+        </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>(916) 452-5724</t>
+          <t>(209) 466-2546</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Fax (916) 452-2715</t>
+          <t>Fax (209) 466-0916</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
@@ -7062,12 +7389,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>644 E Hardin, Ste A</t>
+          <t>31757 Temecula Pkwy, Ste C</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Temecula</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7075,17 +7402,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>95204</v>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92592</t>
+        </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>(209) 466-2546</t>
+          <t>(951) 506-7850</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Fax (209) 466-0916</t>
+          <t>Fax (951) 506-7863</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
@@ -7097,17 +7426,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Achilles Prosthetics &amp;amp; Orthotics Inc.   </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>31757 Temecula Pkwy, Ste C</t>
+          <t>234 Heather Ct, Ste 101</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Temecula</t>
+          <t>Templeton</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7115,39 +7444,46 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>92592</v>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93465</t>
+        </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>(951) 506-7850</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Fax (951) 506-7863</t>
+          <t>(805) 434-1600</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>danny@achillespo.com</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>http://www.hanger.com/</t>
+          <t>http://www.achillespo.com/</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Zachariah Malzhan, CPO</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Achilles Prosthetics &amp;amp; Orthotics Inc.   </t>
+          <t xml:space="preserve">Vogue Prosthetic Orthotic Center Inc.   </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>234 Heather Ct, Ste 101</t>
+          <t>101 Hodencamp Rd, Ste 214</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Templeton</t>
+          <t>Thousand Oaks</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7155,44 +7491,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>93465</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91360</t>
+        </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>(805) 434-1600</t>
+          <t>(805) 496-1660</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Fax (805) 496-8021</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>danny@achillespo.com</t>
+          <t>tovoguepo@hotmail.com</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>http://www.achillespo.com/</t>
+          <t>http://www.voguepoc.com/</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Zachariah Malzhan, CPO</t>
+          <t>Rick Chavez, CPO, Owner Kent Tracy, CPO, Owner</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vogue Prosthetic Orthotic Center Inc.   </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>101 Hodencamp Rd, Ste 214</t>
+          <t>1319 W Carson St</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Thousand Oaks</t>
+          <t>Torrance</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7200,32 +7543,24 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>91360</v>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90501</t>
+        </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>(805) 496-1660</t>
+          <t>(562) 595-6445</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Fax (805) 496-8021</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>tovoguepo@hotmail.com</t>
+          <t>Fax (310) 320-6341</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>http://www.voguepoc.com/</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Rick Chavez, CPO, Owner Kent Tracy, CPO, Owner</t>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
     </row>
@@ -7237,7 +7572,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1319 W Carson St</t>
+          <t>23451 Madison St, Ste 200</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7250,17 +7585,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>90501</v>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90505</t>
+        </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>(562) 595-6445</t>
+          <t>(209) 532-4497</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Fax (310) 320-6341</t>
+          <t>Fax (310) 373-7710</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -7272,17 +7609,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Pacific Medical P&amp;amp;O </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>23451 Madison St, Ste 200</t>
+          <t>1851 E Paradise Rd, Ste A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Torrance</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7290,39 +7627,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>90505</v>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>95304</t>
+        </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>(209) 532-4497</t>
+          <t>(800) 726-9180</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Fax (310) 373-7710</t>
+          <t>Fax (209) 221-6122</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>amahabali@pacmedical.com</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>http://www.hanger.com/</t>
+          <t>http://www.pacmedical.com/</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Robert McCune, Vice President, Top Shelf</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pacific Medical P&amp;amp;O </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1851 E Paradise Rd, Ste A</t>
+          <t>2020 Colorado Ave, Ste B</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7330,49 +7679,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>95304</v>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>95382</t>
+        </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>(800) 726-9180</t>
+          <t>(209) 634-9021</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Fax (209) 221-6122</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>amahabali@pacmedical.com</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="inlineStr">
-        <is>
-          <t>http://www.pacmedical.com/</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Robert McCune, Vice President, Top Shelf</t>
+          <t>Fax (209) 634-9023</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">Human Designs Prosthetic &amp;amp; Orthotic Laboratory Inc.     </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2020 Colorado Ave, Ste B</t>
+          <t>1541 Pkwy Loop, Ste</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Tustin</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7380,39 +7721,56 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>95382</v>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92708</t>
+        </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>(209) 634-9021</t>
+          <t>(800) 988-2414；(714) 258-8144</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Fax (209) 634-9023</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>http://www.hanger.com/</t>
+          <t>Fax (714) 258-8140</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>rmerritt@humandesigns.com</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>http://www.humandesigns.com/</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Ana Lozano, CMF</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Ron Merritt, CPO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Human Designs Prosthetic &amp;amp; Orthotic Laboratory Inc.     </t>
+          <t xml:space="preserve">KLM Laboratories </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1541 Pkwy Loop, Ste</t>
+          <t>28280 Alta Vista Ave</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Tustin</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7420,54 +7778,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>92708</v>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91355</t>
+        </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>(800) 988-2414；(714) 258-8144</t>
+          <t>(800) 556-3668</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Fax (714) 258-8140</t>
+          <t>Fax (800) 556-3338</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>rmerritt@humandesigns.com</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="inlineStr">
-        <is>
-          <t>http://www.humandesigns.com/</t>
+          <t>cservice@klmlabs.com</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>klmlabs.com</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Ana Lozano, CMF</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Ron Merritt, CPO</t>
+          <t>Scott Marshall, Owner Melinda Dawson</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">KLM Laboratories </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>28280 Alta Vista Ave</t>
+          <t>1460 N Camino Alto, Ste 106</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Vallejo</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7475,49 +7830,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>91355</v>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94589</t>
+        </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>(800) 556-3668</t>
+          <t>(707) 643-2177</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Fax (800) 556-3338</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>cservice@klmlabs.com</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>klmlabs.com</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Scott Marshall, Owner Melinda Dawson</t>
+          <t>Fax (707) 643-6339</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t xml:space="preserve">PROWALK Orthotics &amp;amp; Prosthetics Inc.   </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1460 N Camino Alto, Ste 106</t>
+          <t xml:space="preserve">14431 Hamlin St, Ste 101 </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Vallejo</t>
+          <t>Van Nuys</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7525,39 +7872,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>94589</v>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91401</t>
+        </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>(707) 643-2177</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Fax (707) 643-6339</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="inlineStr">
-        <is>
-          <t>http://www.hanger.com/</t>
+          <t>(800) 686-3435; (818) 782-3435</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>main@prowalkoandp.com</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Sang C. Park</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROWALK Orthotics &amp;amp; Prosthetics Inc.   </t>
+          <t xml:space="preserve">Anacapa Prosthetic &amp;amp; Orthotic Lab Inc.   </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">14431 Hamlin St, Ste 101 </t>
+          <t xml:space="preserve">2300 Knoll Dr, Unit D </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Van Nuys</t>
+          <t>Ventura</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7565,34 +7914,41 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>91401</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93003</t>
+        </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>(800) 686-3435; (818) 782-3435</t>
+          <t>(805) 658-1388</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Fax (805) 658-2636</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>main@prowalkoandp.com</t>
+          <t>cortho1@yahoo.com</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Sang C. Park</t>
+          <t>Robert S. Chacon, CO</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anacapa Prosthetic &amp;amp; Orthotic Lab Inc.   </t>
+          <t xml:space="preserve">Channel Islands Prosthetics-Orthotics   </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">2300 Knoll Dr, Unit D </t>
+          <t xml:space="preserve">4517 Market St, Ste 4 </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7605,44 +7961,61 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>93003</v>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93003</t>
+        </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>(805) 658-1388</t>
+          <t>(805) 658-1822</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Fax (805) 658-2636</t>
+          <t>Fax (805) 658-1824</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>cortho1@yahoo.com</t>
+          <t>chris@cip-o.com</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>http://www.channelislandsp-o.com/</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Robert S. Chacon, CO</t>
+          <t>John Stephen McAtee, CP, FAAOP,</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Arnel Dobrin-McAtee, CP Christopher J. Holloway, CO</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Channel Islands Prosthetics-Orthotics   </t>
+          <t xml:space="preserve">DJO </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">4517 Market St, Ste 4 </t>
+          <t>1430 Decision St</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ventura</t>
+          <t>Vista</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7650,54 +8023,51 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>93003</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92081</t>
+        </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>(805) 658-1822</t>
+          <t>(760) 734-4742；(800) 321-9549</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Fax (805) 658-1824</t>
+          <t>Fax (800) 419-9477</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>chris@cip-o.com</t>
+          <t>dale.hammer@djoglobal.com</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>http://www.channelislandsp-o.com/</t>
+          <t>http://www.djoglobal.com/</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>John Stephen McAtee, CP, FAAOP,</t>
+          <t>Steve Ingel, President Bracing &amp; Vascular</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Owner</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Arnel Dobrin-McAtee, CP Christopher J. Holloway, CO</t>
+          <t>Dale Hammer, Sr. Vice President, Global Compliance &amp; Government Relations</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">DJO </t>
+          <t xml:space="preserve">Hanger Clinic   </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1430 Decision St</t>
+          <t>1968 Via Centre Dr</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7710,37 +8080,24 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>92081</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92081</t>
+        </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>(760) 734-4742；(800) 321-9549</t>
+          <t>(760) 941-1323</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Fax (800) 419-9477</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>dale.hammer@djoglobal.com</t>
+          <t>Fax (760) 941-6452</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>http://www.djoglobal.com/</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Steve Ingel, President Bracing &amp; Vascular</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Dale Hammer, Sr. Vice President, Global Compliance &amp; Government Relations</t>
+          <t>http://www.hanger.com/</t>
         </is>
       </c>
     </row>
@@ -7752,12 +8109,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1968 Via Centre Dr</t>
+          <t>13203 Hadley St, Ste 209</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Vista</t>
+          <t>Whittier Medical Plz Whittier</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7765,17 +8122,19 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>92081</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>90601</t>
+        </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>(760) 941-1323</t>
+          <t>(562) 698-9578</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Fax (760) 941-6452</t>
+          <t>Fax (562) 698-6512</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
@@ -7787,17 +8146,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanger Clinic   </t>
+          <t>Prosthetic &amp; Orthotic Group Inc.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>13203 Hadley St, Ste 209</t>
+          <t>12200 E Washington Blvd, Ste M</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Whittier Medical Plz Whittier</t>
+          <t>Whittier</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7805,70 +8164,32 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>90601</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90606</t>
+        </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>(562) 698-9578</t>
+          <t>(562) 945-4920</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Fax (562) 698-6512</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="inlineStr">
-        <is>
-          <t>http://www.hanger.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Prosthetic &amp; Orthotic Group Inc.</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>12200 E Washington Blvd, Ste M</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Whittier</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>90606</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>(562) 945-4920</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
           <t>Fax (562) 945-9360</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>glennmatsushima@p-o-group.com</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>www.p-o-group.com</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>Kevin Fujikami, CO, BOCPO Paul Kanzawa, CO</t>
         </is>
@@ -7971,32 +8292,32 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I132" r:id="rId93"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I133" r:id="rId94"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I135" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I139" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I143" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I144" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I145" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I146" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I151" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I152" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I155" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I156" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I157" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I158" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I159" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I160" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I161" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I162" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I163" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I164" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I165" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I166" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H167" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I168" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I170" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I173" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I174" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I175" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I176" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I138" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I142" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I143" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I144" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I145" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I150" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I151" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I154" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I155" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I156" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I157" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I158" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I159" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I160" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I161" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I162" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I163" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I164" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I165" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H166" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I167" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I169" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I172" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I173" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I174" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I175" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
